--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/138.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/138.xlsx
@@ -479,13 +479,13 @@
         <v>-16.48829704161822</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.522820108796965</v>
+        <v>-9.993030165357556</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.036264850469468</v>
+        <v>-3.083501879122416</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.257049903351131</v>
+        <v>-6.830741521572726</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.02461589453478</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.808598895226162</v>
+        <v>-10.28845797898111</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.018655703147346</v>
+        <v>-3.016272904030152</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.221857793312571</v>
+        <v>-6.80013171752877</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.51412078170193</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.63249751305598</v>
+        <v>-11.113508719461</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.847369105069044</v>
+        <v>-2.811286718437247</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.107850020166821</v>
+        <v>-6.676815317062553</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.98984457490299</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.36440961111984</v>
+        <v>-11.84049811165636</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.79431909395437</v>
+        <v>-2.79242071004232</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.342005856491092</v>
+        <v>-6.924246748468334</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.44427558283745</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.20143980869991</v>
+        <v>-12.70599097561435</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.61492836041704</v>
+        <v>-2.582930772271861</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.865668602200572</v>
+        <v>-6.427315301807779</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.87546773505811</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.89017349199175</v>
+        <v>-13.38510181631752</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.560058519207366</v>
+        <v>-2.518110780902475</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.962276704869669</v>
+        <v>-6.51212723961648</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.28494918429127</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.4422628105245</v>
+        <v>-13.96655717012426</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.454744035148521</v>
+        <v>-2.42841541413381</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.467413842058106</v>
+        <v>-5.988225649101969</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.68184290749578</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.44477971602399</v>
+        <v>-14.97474304275422</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.251551495044933</v>
+        <v>-2.256971708421407</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.289437077227682</v>
+        <v>-5.772752528932842</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.07370661889573</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.19661829901295</v>
+        <v>-15.72066390485872</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.227304550182056</v>
+        <v>-2.223403043935221</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.91388437021277</v>
+        <v>-5.398129375419693</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.48926687862932</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.88596732053835</v>
+        <v>-16.43435151736689</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.023941810141525</v>
+        <v>-2.012132552978288</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.681116317989723</v>
+        <v>-5.162546478085674</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.94930058178525</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.53712609467444</v>
+        <v>-17.08548410689729</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.105716333690946</v>
+        <v>-2.156278807265692</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.1509042375055</v>
+        <v>-4.643462855016918</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.47751327322248</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.51853820799307</v>
+        <v>-18.05695916235905</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.900507578949732</v>
+        <v>-1.936956550061097</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.495686849488477</v>
+        <v>-3.957949878224142</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.10880846602421</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.11253598792218</v>
+        <v>-18.64557600582021</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.636632215174743</v>
+        <v>-1.685401043260172</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.200416143499029</v>
+        <v>-3.70391992618613</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.857490283109751</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.03004457107034</v>
+        <v>-19.58045807483935</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.493389329783418</v>
+        <v>-1.552082123422876</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.607937070699558</v>
+        <v>-3.111637237929285</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.738001185206084</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.94283992519548</v>
+        <v>-20.50755022366765</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.327666960412849</v>
+        <v>-1.376959480611948</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.199863083425798</v>
+        <v>-2.666590587430491</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.744814585475122</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.74064558346175</v>
+        <v>-21.3032480211764</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.133442647755843</v>
+        <v>-1.214510186951811</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.697773269445603</v>
+        <v>-2.18675768828123</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.861607598695805</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.70252398094052</v>
+        <v>-22.26405284982215</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.037672452468617</v>
+        <v>-1.107991211031528</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.33344066596605</v>
+        <v>-1.802668799813513</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.06898085364625</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.5445161612976</v>
+        <v>-23.11129504361877</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9289670619737652</v>
+        <v>-1.024606334232574</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9739653068407778</v>
+        <v>-1.464088756023635</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.3303249240505</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.22048484931876</v>
+        <v>-23.81753313581</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7016846846414007</v>
+        <v>-0.821492347946036</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.636000601284461</v>
+        <v>-1.127996249773685</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.60944196690672</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.83654315953618</v>
+        <v>-24.42446611094674</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4211559116517363</v>
+        <v>-0.5615053981150397</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2811991942736846</v>
+        <v>-0.7576411869869379</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.87654823336277</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.49990395992076</v>
+        <v>-25.10688930426887</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2468318993141536</v>
+        <v>-0.432493845912671</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1363721402385108</v>
+        <v>-0.5323095627779906</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.09900007338038</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.93484335262574</v>
+        <v>-25.51424321488633</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1769190021393365</v>
+        <v>-0.3752412055858029</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07303924371489766</v>
+        <v>-0.3455216781350847</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.25873313303613</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.35983259517101</v>
+        <v>-25.97229052210696</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2079084829657021</v>
+        <v>-0.4096608697567007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08771571520047258</v>
+        <v>-0.3009947561703744</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.33811291352054</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.61888999150025</v>
+        <v>-26.21976123042126</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09428805122701907</v>
+        <v>-0.1012585840170015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08831796113119197</v>
+        <v>-0.284380623864224</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.33027054804268</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.62207142109078</v>
+        <v>-26.23890217717587</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07241081317849481</v>
+        <v>-0.1455236599248773</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.07303157909024009</v>
+        <v>-0.4512551158848645</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.24048275533505</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.62023849869294</v>
+        <v>-26.27004876563633</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1254269750628278</v>
+        <v>-0.3372604350419556</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.05410010918110419</v>
+        <v>-0.417346051524794</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.07407988307417</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.68237456797977</v>
+        <v>-26.30850085908248</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05543009639277609</v>
+        <v>-0.117676331780526</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3471320313846171</v>
+        <v>-0.7222134154972272</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.84373774995753</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.75972389316869</v>
+        <v>-26.41653854213241</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.0003431137129769574</v>
+        <v>-0.1756621410665307</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4186945587174917</v>
+        <v>-0.7781044563285557</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.56779199043862</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.51604995267849</v>
+        <v>-26.14336764333979</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1055397670462459</v>
+        <v>-0.2702278444923181</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5758152851210463</v>
+        <v>-0.9102319766072553</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.25891202529849</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.07722214602951</v>
+        <v>-25.73207294956697</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1141021331047348</v>
+        <v>-0.2793531795730012</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.089557248630377</v>
+        <v>-1.434735813052485</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.935878689012565</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.13503775537858</v>
+        <v>-25.81638737986768</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0435084361821478</v>
+        <v>-0.1875106751382928</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.231229057680695</v>
+        <v>-1.614074177378449</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.610617324084274</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.72630915296273</v>
+        <v>-25.38663253908803</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.09526230931549096</v>
+        <v>-0.2323910892797298</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.727466612290638</v>
+        <v>-2.119842928457168</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.293333325917787</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.10602202892743</v>
+        <v>-24.74363026962233</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1633946533038334</v>
+        <v>-0.2661168614000162</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.773538425990672</v>
+        <v>-2.140777520701088</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.99957104742494</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.75417948235889</v>
+        <v>-24.38514992551303</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3620703489270265</v>
+        <v>-0.4661934334272739</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.893123520146998</v>
+        <v>-2.292923172024787</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.733197086860045</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.97819869292978</v>
+        <v>-23.57997330074688</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4676859559512307</v>
+        <v>-0.5563994000067666</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.070445669835336</v>
+        <v>-2.458318233824313</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.496220790447191</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.18797347800888</v>
+        <v>-22.78347687276479</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4110748384636072</v>
+        <v>-0.5101835709754735</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.222538951947667</v>
+        <v>-2.627732632596248</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.292876655697329</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.8027979284053</v>
+        <v>-22.418253992692</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4713648930497557</v>
+        <v>-0.5645297200714784</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.490355098878016</v>
+        <v>-2.903535084260049</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.118444847287858</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.15300075376475</v>
+        <v>-21.75656900707116</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3908865074816656</v>
+        <v>-0.51675590700202</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.666368018282181</v>
+        <v>-3.097667750797163</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.975270924384388</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.77384766346836</v>
+        <v>-21.35598381702287</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6044874283444264</v>
+        <v>-0.6853454906949266</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.86963911220282</v>
+        <v>-3.28347371272694</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.859691718632379</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.17258365546209</v>
+        <v>-20.71058565613714</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3759743745449396</v>
+        <v>-0.4908855165867693</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.766825257986746</v>
+        <v>-3.204736603436799</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.76970077232835</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.65099940255057</v>
+        <v>-20.21983377641788</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1340286180298418</v>
+        <v>-0.2430744083985783</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.842970091314224</v>
+        <v>-3.325945143145499</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.709094865435469</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.74143784722733</v>
+        <v>-19.2979261795149</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1183702238311375</v>
+        <v>-0.2132763271308097</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.803326598309478</v>
+        <v>-3.316597238916506</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.673501274860243</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.41405172236713</v>
+        <v>-18.95985673553585</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.07204965637711064</v>
+        <v>-0.1614046232718911</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.022138255703246</v>
+        <v>-3.554785504516029</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.663655067376147</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.86116377336104</v>
+        <v>-18.38257782633562</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09662390881103046</v>
+        <v>-0.1894483359588683</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.083096017734322</v>
+        <v>-3.627199031533616</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.681815033815279</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.41035650961188</v>
+        <v>-17.91341515400237</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.02787622658912688</v>
+        <v>-0.1125703336722528</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.932338150511847</v>
+        <v>-3.428366228276322</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.72973763723069</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.73423071395663</v>
+        <v>-17.22140839500009</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.06784702716491657</v>
+        <v>-0.1719177424537971</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.294837831593558</v>
+        <v>-3.816029315419831</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.815107873988982</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.07689237287924</v>
+        <v>-16.55880694818034</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.03586253132257978</v>
+        <v>-0.1186975314021806</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.179913597248886</v>
+        <v>-3.661343757344838</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.935676246749271</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.46743258329405</v>
+        <v>-15.90078780735519</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06195006320795567</v>
+        <v>-0.03176464053311952</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.450806435347041</v>
+        <v>-3.972259765230148</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.093030613303267</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.76516145886387</v>
+        <v>-15.17095738544317</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1558742437944985</v>
+        <v>0.03124861304410805</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.406777020890316</v>
+        <v>-3.935326378913639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.28761412856238</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.94991685321243</v>
+        <v>-14.35268845783529</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1807888961023032</v>
+        <v>0.0640710162683153</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.550334121549842</v>
+        <v>-4.121839325196868</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.511953523939132</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.36107744060295</v>
+        <v>-13.77403485683668</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2489736093020126</v>
+        <v>0.1311428837264779</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.497991094788621</v>
+        <v>-4.007334044543132</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.76501755123172</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.70673723687633</v>
+        <v>-13.09179495575433</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3131520778321538</v>
+        <v>0.2081256244358272</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.544848446659159</v>
+        <v>-4.068723852567985</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.039136540709618</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.32567267036505</v>
+        <v>-12.70430206854777</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1932789530133099</v>
+        <v>0.05984220245043778</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.716946767513648</v>
+        <v>-4.28227240421938</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.330070267129869</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.77669931990863</v>
+        <v>-12.09041708060207</v>
       </c>
       <c r="F55" t="n">
-        <v>0.009188082755799621</v>
+        <v>-0.08007523801908871</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.155578189619996</v>
+        <v>-4.684153732249003</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.638384200569508</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.35061032392466</v>
+        <v>-11.65947084026382</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02107589373608689</v>
+        <v>-0.1064300436394833</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.259675089514561</v>
+        <v>-4.813859176501984</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.954942330554045</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.58023304011181</v>
+        <v>-10.88098942099194</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.03037685643189656</v>
+        <v>-0.1465055826380068</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.661124371550406</v>
+        <v>-5.248209415579087</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.28030061478463</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.31644932245672</v>
+        <v>-10.62506108504188</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1987700555821773</v>
+        <v>-0.3084442764873165</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.683381286381342</v>
+        <v>-5.246782354569339</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.61294029032894</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.718013251864258</v>
+        <v>-10.00080699324554</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1409675385359566</v>
+        <v>-0.2619142321878221</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.983823451993271</v>
+        <v>-5.562372314569146</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.94414813198008</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.377469362648123</v>
+        <v>-9.695180275708289</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2496598367279665</v>
+        <v>-0.3610229646996884</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.872643616261334</v>
+        <v>-5.42951162533131</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.27293290529318</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.823638767837426</v>
+        <v>-9.120899503858816</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2755433194460589</v>
+        <v>-0.3870242781433564</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.248013031036462</v>
+        <v>-5.800861703134028</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.5885364185827</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.345494775754748</v>
+        <v>-8.645072849379124</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2314091665666003</v>
+        <v>-0.3357286356094736</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.267389639242216</v>
+        <v>-5.834443459923055</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.88553825104267</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.897659464750666</v>
+        <v>-8.194985662286266</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2484815294722111</v>
+        <v>-0.3463072163055883</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.249361538229159</v>
+        <v>-5.815119220928668</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-12.16205997834155</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.54171902739266</v>
+        <v>-7.851273435782431</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4038086103864492</v>
+        <v>-0.4941062230858339</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.435704284575446</v>
+        <v>-5.984625265820495</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-12.40729066309657</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.189915757732638</v>
+        <v>-7.497414674576259</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3368022044424952</v>
+        <v>-0.4128292070443985</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.694067788854069</v>
+        <v>-6.21798247167142</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-12.62082511532865</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.93977421963862</v>
+        <v>-7.240373492884651</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4531534997969148</v>
+        <v>-0.5374941147033141</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.655144372505617</v>
+        <v>-6.159368231849013</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.80360120593899</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.773790004211217</v>
+        <v>-7.07387867764642</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.546580172875472</v>
+        <v>-0.6346390017889215</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.746332261798239</v>
+        <v>-6.242216324231456</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.95112168736268</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.496639045354718</v>
+        <v>-6.789566229135497</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.492810085104503</v>
+        <v>-0.5882791574263695</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.720344040657412</v>
+        <v>-6.193905726745486</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.06834070048814</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.376438612964831</v>
+        <v>-6.687917589872336</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7830664391055699</v>
+        <v>-0.8911826759725439</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.756007473598275</v>
+        <v>-6.205780445422932</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.15391481904425</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.184937499298904</v>
+        <v>-6.503905273431876</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6975867938519404</v>
+        <v>-0.7829355160771527</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.593217780064252</v>
+        <v>-6.028445203431752</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.21087597473984</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.094914824959195</v>
+        <v>-6.435497991083857</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7662951991653189</v>
+        <v>-0.8563833350192359</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.508523672981127</v>
+        <v>-5.926299056660605</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.24659324096806</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.101186038020383</v>
+        <v>-6.456419491024936</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8925049985595581</v>
+        <v>-0.9942060070340862</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.336451536732321</v>
+        <v>-5.716940041918564</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.25815613525017</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.156684309766459</v>
+        <v>-6.514064900437056</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9439708410303833</v>
+        <v>-1.053304662061638</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.158592602627472</v>
+        <v>-5.551963933809974</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.24719312069928</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.374540229052781</v>
+        <v>-6.73201246584327</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8230765165898848</v>
+        <v>-0.9320568454444126</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.016292363040752</v>
+        <v>-5.393900561601815</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.21860174250927</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.553813131864536</v>
+        <v>-6.899986711302615</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.162114790979223</v>
+        <v>-1.286125083496052</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.847624225530795</v>
+        <v>-5.225258608697541</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.16805348524737</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.027977063883329</v>
+        <v>-7.363794631773603</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.094008631596564</v>
+        <v>-1.22573029048717</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.633709089399833</v>
+        <v>-4.978547253948055</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.10052556901715</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.467263101131763</v>
+        <v>-7.777812524537506</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.157231362019259</v>
+        <v>-1.29885080185821</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.562644069574944</v>
+        <v>-4.923611951224173</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.01651522489541</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.067244063459544</v>
+        <v>-8.377767302259603</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.215295725122314</v>
+        <v>-1.339607140604503</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.194226667608772</v>
+        <v>-4.575670910902461</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.91801062320495</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.479887264425066</v>
+        <v>-8.786469720069766</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.219380523608933</v>
+        <v>-1.371329790390006</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.047893998746799</v>
+        <v>-4.441919945071388</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.81303348190263</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.932684558206162</v>
+        <v>-9.227955264195611</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.350539213477345</v>
+        <v>-1.472467829842339</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.690042085173901</v>
+        <v>-4.090692736736402</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.70020732139978</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.827268519078464</v>
+        <v>-10.10432783181507</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.323516700412022</v>
+        <v>-1.467806970030685</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.690971638675664</v>
+        <v>-4.106953376865826</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.58278854105145</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.59049740553973</v>
+        <v>-10.83799429845972</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.405605439229644</v>
+        <v>-1.5556039528873</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.49107835888819</v>
+        <v>-3.895957824268569</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.47115041215194</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.38746515642412</v>
+        <v>-11.61500937981332</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.537039067457733</v>
+        <v>-1.693282609570891</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.154697821975722</v>
+        <v>-3.575890296696891</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.36593320689633</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.57201744063497</v>
+        <v>-12.81337404352219</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.606166426462046</v>
+        <v>-1.757657462643659</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.010040967877491</v>
+        <v>-3.428903012692833</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.27729844016516</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.45731895879248</v>
+        <v>-13.67974409177057</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.67567346224877</v>
+        <v>-1.811545381140203</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.679997105540418</v>
+        <v>-3.094420859692415</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-12.20836480632934</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.59107310797743</v>
+        <v>-14.77837159243117</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.863011223611028</v>
+        <v>-1.997364435372821</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.423466523659638</v>
+        <v>-2.844724459895016</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-12.1657147608844</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.6534480220693</v>
+        <v>-15.82266603629861</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.895807442229552</v>
+        <v>-2.027529101120158</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.999000973228037</v>
+        <v>-2.408659129145645</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.15949152611889</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.050187258436</v>
+        <v>-17.20987407619653</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.856019933893546</v>
+        <v>-1.951515190821096</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.714609970900063</v>
+        <v>-2.148842379251592</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.18752630600054</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.68574319093863</v>
+        <v>-18.82094740238513</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.075774237091919</v>
+        <v>-2.178889214273353</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.534577714523488</v>
+        <v>-1.966414231454981</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.25021753485773</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.26752903567029</v>
+        <v>-20.39043957474841</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.294834648239679</v>
+        <v>-2.379816785985323</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.250959158063176</v>
+        <v>-1.685623612408482</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.35013301330944</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.99350041159788</v>
+        <v>-22.05305729722489</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.465702292627046</v>
+        <v>-2.520977995224813</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.391753782823098</v>
+        <v>-1.822228700259051</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.47681104579908</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.6535913196259</v>
+        <v>-23.68392618531018</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.56866016217438</v>
+        <v>-2.640301243324305</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.190695288082711</v>
+        <v>-1.620371575045319</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.62565587671571</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75656864818384</v>
+        <v>-25.78365662276337</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.695210361442504</v>
+        <v>-2.733610085677287</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.165702081957856</v>
+        <v>-1.591005539771327</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.77994881701317</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.97665662566101</v>
+        <v>-27.98862299045835</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.548419461981071</v>
+        <v>-2.574237483184955</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.270361950874614</v>
+        <v>-1.671130433162691</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.92736335618018</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.24555270813214</v>
+        <v>-30.23895418749991</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.997799664720477</v>
+        <v>-3.004529108381124</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.621261851638556</v>
+        <v>-2.035384482825194</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-13.05789747969994</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.46964693027888</v>
+        <v>-32.4712834681341</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.026353977218281</v>
+        <v>-2.994958635003822</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.874702650048689</v>
+        <v>-2.30052979997583</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-13.15479550647211</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.70353419495123</v>
+        <v>-34.71870817394479</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.321258098728161</v>
+        <v>-3.253950569818847</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.062681934250192</v>
+        <v>-2.466736584551542</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-13.20681913728025</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.21148263500943</v>
+        <v>-37.21509611059375</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.570077314235165</v>
+        <v>-3.507352091320455</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.500082679889418</v>
+        <v>-2.928672305716163</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-13.21635322088478</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68730256389404</v>
+        <v>-39.6455250255261</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.501224893590527</v>
+        <v>-3.448593836166789</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.973631273674651</v>
+        <v>-3.411280773067869</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-13.17449029407528</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.25520065866451</v>
+        <v>-42.21554407335692</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.679057643089693</v>
+        <v>-3.625915985855127</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.275068454302552</v>
+        <v>-3.686755917160628</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-13.09902128220258</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.54950890095143</v>
+        <v>-44.51783862037729</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.891401702879648</v>
+        <v>-3.827144680532456</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.813371577942961</v>
+        <v>-4.183045840981938</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.98424402833291</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86723927302219</v>
+        <v>-46.83920865263806</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.024105284483383</v>
+        <v>-3.950094496519106</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.116929711631221</v>
+        <v>-4.491081542242068</v>
       </c>
     </row>
   </sheetData>
